--- a/engineering_basics/programming_scratch_pad.xlsx
+++ b/engineering_basics/programming_scratch_pad.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="AudioEQCookbook" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="94">
   <si>
     <t xml:space="preserve">Bytes</t>
   </si>
@@ -65,6 +65,9 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">Calculate all biquads and store into Matrix C</t>
+  </si>
+  <si>
     <t xml:space="preserve">e8</t>
   </si>
   <si>
@@ -125,23 +128,7 @@
     <t xml:space="preserve">w0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">w0=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">2*pi*f0Fs</t>
-    </r>
+    <t xml:space="preserve">w0=2*pi*f0Fs</t>
   </si>
   <si>
     <t xml:space="preserve">c7</t>
@@ -330,6 +317,30 @@
   <si>
     <t xml:space="preserve">RTN</t>
   </si>
+  <si>
+    <t xml:space="preserve">LBL A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Q from BW and from A and S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBL B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bqidx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get filter response at frequency fx</t>
+  </si>
 </sst>
 </file>
 
@@ -338,11 +349,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -377,11 +389,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -459,51 +467,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -630,10 +638,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G70" activeCellId="0" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -697,14 +705,16 @@
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>10</v>
@@ -722,10 +732,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>10</v>
@@ -743,10 +753,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>10</v>
@@ -764,10 +774,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>10</v>
@@ -785,10 +795,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>10</v>
@@ -806,13 +816,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>12</v>
@@ -827,16 +837,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>12</v>
@@ -848,13 +858,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>12</v>
@@ -869,7 +879,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="9" t="n">
         <v>2</v>
@@ -878,7 +888,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>12</v>
@@ -890,13 +900,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>12</v>
@@ -908,18 +918,18 @@
         <v>13</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>12</v>
@@ -934,7 +944,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -942,7 +952,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,10 +960,10 @@
         <v>42</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>12</v>
@@ -968,16 +978,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>12</v>
@@ -989,16 +999,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>12</v>
@@ -1013,13 +1023,13 @@
         <v>43</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="D19" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>12</v>
@@ -1031,13 +1041,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>12</v>
@@ -1052,10 +1062,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>12</v>
@@ -1076,7 +1086,7 @@
         <v>44</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>12</v>
@@ -1094,10 +1104,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>13</v>
@@ -1118,7 +1128,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>13</v>
@@ -1136,7 +1146,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" s="9" t="n">
         <v>1</v>
@@ -1178,10 +1188,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="9" t="n">
         <v>10</v>
@@ -1199,7 +1209,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" s="9" t="n">
         <v>6</v>
@@ -1220,10 +1230,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" s="9" t="n">
         <v>6</v>
@@ -1241,7 +1251,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" s="9" t="n">
         <v>1</v>
@@ -1265,10 +1275,10 @@
         <v>33</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" s="9" t="n">
         <v>1</v>
@@ -1283,13 +1293,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32" s="9" t="n">
         <v>6</v>
@@ -1304,16 +1314,16 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E33" s="9" t="n">
         <v>6</v>
@@ -1325,19 +1335,19 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F34" s="9" t="n">
         <v>6</v>
@@ -1346,7 +1356,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="9" t="n">
         <v>2</v>
@@ -1355,10 +1365,10 @@
         <v>2</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F35" s="9" t="n">
         <v>6</v>
@@ -1367,16 +1377,16 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E36" s="9" t="n">
         <v>6</v>
@@ -1388,7 +1398,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1396,21 +1406,21 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E38" s="9" t="n">
         <v>6</v>
@@ -1422,16 +1432,16 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E39" s="9" t="n">
         <v>6</v>
@@ -1443,7 +1453,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1451,21 +1461,21 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E41" s="9" t="n">
         <v>6</v>
@@ -1477,16 +1487,16 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E42" s="9" t="n">
         <v>6</v>
@@ -1498,7 +1508,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1506,21 +1516,21 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E44" s="9" t="n">
         <v>6</v>
@@ -1535,16 +1545,16 @@
         <v>32</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F45" s="9" t="n">
         <v>6</v>
@@ -1556,46 +1566,46 @@
         <v>34</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48" s="9" t="n">
         <v>2</v>
@@ -1604,37 +1614,37 @@
         <v>2</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,25 +1652,25 @@
         <v>46</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51" s="9" t="n">
         <v>1</v>
@@ -1669,40 +1679,40 @@
         <v>1</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1710,27 +1720,27 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G54" s="10"/>
     </row>
@@ -1739,46 +1749,46 @@
         <v>33</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="E56" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B57" s="9" t="n">
         <v>2</v>
@@ -1787,40 +1797,40 @@
         <v>2</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -1828,27 +1838,27 @@
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G60" s="10"/>
     </row>
@@ -1857,46 +1867,46 @@
         <v>36</v>
       </c>
       <c r="B61" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="E61" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="F62" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B63" s="9" t="n">
         <v>1</v>
@@ -1905,40 +1915,40 @@
         <v>1</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -1946,50 +1956,90 @@
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="D67" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G67" s="12"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2027,42 +2077,42 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2072,57 +2122,57 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,7 +2187,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2147,7 +2197,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2157,22 +2207,22 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,47 +2232,47 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,12 +2282,12 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2247,22 +2297,22 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,22 +2322,22 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,17 +2347,17 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/engineering_basics/programming_scratch_pad.xlsx
+++ b/engineering_basics/programming_scratch_pad.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="93">
   <si>
     <t xml:space="preserve">Bytes</t>
   </si>
@@ -140,12 +140,6 @@
     <t xml:space="preserve">sin(w0)</t>
   </si>
   <si>
-    <t xml:space="preserve">bf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store as if in user mode</t>
-  </si>
-  <si>
     <t xml:space="preserve">STO 2</t>
   </si>
   <si>
@@ -212,13 +206,13 @@
     <t xml:space="preserve">(1-cos(w0))/2</t>
   </si>
   <si>
+    <t xml:space="preserve">bf 4c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO C</t>
+  </si>
+  <si>
     <t xml:space="preserve">Store as if in user mode by prepending the opcode bf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STO C</t>
   </si>
   <si>
     <t xml:space="preserve">c5</t>
@@ -327,19 +321,22 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">Get Q from BW and from A and S</t>
+    <t xml:space="preserve">Get Q from A and S</t>
   </si>
   <si>
     <t xml:space="preserve">LBL B</t>
   </si>
   <si>
+    <t xml:space="preserve">Get Q from BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBL D</t>
+  </si>
+  <si>
     <t xml:space="preserve">fx</t>
   </si>
   <si>
-    <t xml:space="preserve">Bqidx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get filter response at frequency fx</t>
+    <t xml:space="preserve">Get filter response at frequency fx for all biquads</t>
   </si>
 </sst>
 </file>
@@ -638,10 +635,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G70" activeCellId="0" sqref="G70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E64" activeCellId="0" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -943,33 +940,41 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="9" t="n">
+        <v>42</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10" t="s">
+      <c r="C15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
-        <v>42</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>13</v>
@@ -984,7 +989,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>38</v>
@@ -998,14 +1003,14 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
-        <v>44</v>
+      <c r="A18" s="9" t="n">
+        <v>43</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>38</v>
@@ -1019,20 +1024,20 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
-        <v>43</v>
+      <c r="A19" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>13</v>
@@ -1041,31 +1046,31 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
+        <v>44</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>12</v>
@@ -1082,14 +1087,14 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
-        <v>44</v>
+      <c r="A22" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>13</v>
@@ -1103,8 +1108,8 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>48</v>
+      <c r="A23" s="9" t="n">
+        <v>45</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>49</v>
@@ -1124,14 +1129,14 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>13</v>
+      <c r="A24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>13</v>
@@ -1146,13 +1151,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B25" s="9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>13</v>
@@ -1167,16 +1172,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="9" t="n">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C26" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>13</v>
+      <c r="D26" s="9" t="n">
+        <v>10</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>13</v>
@@ -1190,11 +1195,11 @@
       <c r="A27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>54</v>
+      <c r="B27" s="9" t="n">
+        <v>6</v>
       </c>
       <c r="C27" s="9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D27" s="9" t="n">
         <v>10</v>
@@ -1209,10 +1214,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="B28" s="9" t="n">
-        <v>6</v>
       </c>
       <c r="C28" s="9" t="n">
         <v>6</v>
@@ -1230,61 +1235,61 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="C30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C29" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D29" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E30" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
-        <v>33</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D31" s="9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E31" s="9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F31" s="9" t="n">
         <v>10</v>
@@ -1293,19 +1298,19 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="9" t="n">
+        <v>59</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="9" t="n">
         <v>6</v>
-      </c>
-      <c r="E32" s="9" t="n">
-        <v>10</v>
       </c>
       <c r="F32" s="9" t="n">
         <v>10</v>
@@ -1314,40 +1319,40 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="9" t="n">
+        <v>59</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="9" t="n">
         <v>6</v>
-      </c>
-      <c r="F33" s="9" t="n">
-        <v>10</v>
       </c>
       <c r="G33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>61</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F34" s="9" t="n">
         <v>6</v>
@@ -1356,19 +1361,19 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C35" s="9" t="n">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="E35" s="9" t="n">
+        <v>6</v>
       </c>
       <c r="F35" s="9" t="n">
         <v>6</v>
@@ -1377,16 +1382,16 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E36" s="9" t="n">
         <v>6</v>
@@ -1394,33 +1399,43 @@
       <c r="F36" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="G36" s="10"/>
+      <c r="G36" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="10" t="s">
-        <v>63</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E38" s="9" t="n">
         <v>6</v>
@@ -1428,20 +1443,22 @@
       <c r="F38" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="G38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E39" s="9" t="n">
         <v>6</v>
@@ -1453,32 +1470,42 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>6</v>
+      </c>
       <c r="G40" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
-        <v>64</v>
+      <c r="A41" s="9" t="n">
+        <v>32</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="9" t="n">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="F41" s="9" t="n">
         <v>6</v>
@@ -1486,559 +1513,470 @@
       <c r="G41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
-        <v>66</v>
+      <c r="A42" s="9" t="n">
+        <v>34</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="F42" s="9" t="n">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="G42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="10" t="s">
-        <v>63</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>62</v>
+        <v>33</v>
+      </c>
+      <c r="B44" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="9" t="n">
+        <v>2</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="F44" s="9" t="n">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="G44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="n">
-        <v>32</v>
+      <c r="A45" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="G45" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="D46" s="9" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="B47" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C48" s="9" t="n">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="9" t="n">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="F52" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="10" t="s">
-        <v>63</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B56" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="E56" s="9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B57" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="G59" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G60" s="10"/>
+      <c r="A60" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60" s="12"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G61" s="10"/>
+      <c r="B61" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G62" s="10"/>
+      <c r="B62" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" s="10"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G66" s="10"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F68" s="7" t="n">
+      <c r="B63" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D69" s="7" t="s">
+      <c r="E63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E69" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2132,47 +2070,47 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,7 +2125,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2197,7 +2135,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2207,22 +2145,22 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,37 +2175,37 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,7 +2225,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,22 +2235,22 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2327,17 +2265,17 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2347,17 +2285,17 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/engineering_basics/programming_scratch_pad.xlsx
+++ b/engineering_basics/programming_scratch_pad.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="184">
   <si>
     <t xml:space="preserve">Line Num</t>
   </si>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">R5 = A</t>
   </si>
   <si>
-    <t xml:space="preserve">cf c9</t>
+    <t xml:space="preserve">cf d0</t>
   </si>
   <si>
     <t xml:space="preserve">RCL* .0</t>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t xml:space="preserve">DIM C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPF start</t>
   </si>
   <si>
     <t xml:space="preserve">33</t>
@@ -444,7 +447,25 @@
     <t xml:space="preserve">STO 9</t>
   </si>
   <si>
-    <t xml:space="preserve">R9 = 1-alpha (for use later since it’s repeated a lot)</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HPF start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, R9 = 1-alpha (for use later since it’s repeated a lot)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -517,16 +538,61 @@
     <t xml:space="preserve">RCL 9</t>
   </si>
   <si>
+    <t xml:space="preserve">BPF Q gain start</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q*alpha</t>
   </si>
   <si>
     <t xml:space="preserve">-Q*alpha</t>
   </si>
   <si>
+    <t xml:space="preserve">BPF 0dB start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notch filter start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Good until here</t>
   </si>
   <si>
-    <t xml:space="preserve">RTN</t>
+    <t xml:space="preserve">Example Params</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In fraction of an octave (use programB for coverting Q to BW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use program A to convert dBGain to A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symb Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerical Value</t>
   </si>
   <si>
     <t xml:space="preserve">Matrix C</t>
@@ -538,9 +604,6 @@
     <t xml:space="preserve">b0</t>
   </si>
   <si>
-    <t xml:space="preserve">b2</t>
-  </si>
-  <si>
     <t xml:space="preserve">a0</t>
   </si>
   <si>
@@ -587,46 +650,6 @@
   </si>
   <si>
     <t xml:space="preserve">R8</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-2cos</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">w0</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">PEAKING</t>
@@ -656,11 +679,12 @@
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -682,18 +706,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -701,6 +728,7 @@
       <color rgb="FFFF9900"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -708,6 +736,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -715,12 +744,14 @@
       <color rgb="FF808080"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -728,6 +759,7 @@
       <color rgb="FF333399"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -735,6 +767,7 @@
       <color rgb="FF333399"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -742,24 +775,28 @@
       <color rgb="FF333399"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333399"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF9900"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF993300"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -767,6 +804,7 @@
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -774,6 +812,7 @@
       <color rgb="FF333399"/>
       <name val="Cambria"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -781,12 +820,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -820,12 +861,6 @@
       <color rgb="FFC9211E"/>
       <name val="Courier New"/>
       <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1085,14 +1120,14 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -1244,7 +1279,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1265,19 +1300,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1285,67 +1324,115 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="18" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="19" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1573,10 +1660,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H126" activeCellId="0" sqref="H126"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H153" activeCellId="0" sqref="H153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1590,62 +1677,63 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="11" t="s">
@@ -1653,10 +1741,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1677,10 +1765,10 @@
       <c r="H4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1701,10 +1789,10 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1725,10 +1813,10 @@
       <c r="H6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1749,10 +1837,10 @@
       <c r="H7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1773,10 +1861,10 @@
       <c r="H8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1797,10 +1885,10 @@
       <c r="H9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1821,10 +1909,10 @@
       <c r="H10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1845,10 +1933,10 @@
       <c r="H11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="3" t="n">
@@ -1869,10 +1957,10 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1895,10 +1983,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1921,10 +2009,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1945,10 +2033,10 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1971,10 +2059,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1995,10 +2083,10 @@
       <c r="H17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2019,10 +2107,10 @@
       <c r="H18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2045,10 +2133,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2069,10 +2157,10 @@
       <c r="H20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -2093,10 +2181,10 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2117,10 +2205,10 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2143,10 +2231,10 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -2167,10 +2255,10 @@
       <c r="H24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2191,10 +2279,10 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -2215,10 +2303,10 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="3" t="n">
@@ -2239,10 +2327,10 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2263,10 +2351,10 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="3" t="n">
@@ -2287,10 +2375,10 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -2311,10 +2399,10 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2335,10 +2423,10 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2359,10 +2447,10 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="3" t="n">
@@ -2383,10 +2471,10 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -2407,10 +2495,10 @@
       <c r="H34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -2431,10 +2519,10 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -2457,10 +2545,10 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="3" t="n">
@@ -2481,10 +2569,10 @@
       <c r="H37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="3" t="n">
@@ -2505,10 +2593,10 @@
       <c r="H38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -2529,10 +2617,10 @@
       <c r="H39" s="12"/>
     </row>
     <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C40" s="3" t="n">
@@ -2553,10 +2641,10 @@
       <c r="H40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -2580,7 +2668,7 @@
       <c r="A42" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="3" t="n">
@@ -2598,17 +2686,19 @@
       <c r="G42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="12"/>
+      <c r="H42" s="14" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>90</v>
+      <c r="B43" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>51</v>
@@ -2628,14 +2718,14 @@
       <c r="A44" s="13" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>92</v>
+      <c r="B44" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E44" s="3" t="n">
         <v>6</v>
@@ -2652,17 +2742,17 @@
       <c r="A45" s="13" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F45" s="3" t="n">
         <v>6</v>
@@ -2676,20 +2766,20 @@
       <c r="A46" s="13" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G46" s="3" t="n">
         <v>6</v>
@@ -2700,7 +2790,7 @@
       <c r="A47" s="13" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C47" s="3" t="n">
@@ -2710,10 +2800,10 @@
         <v>2</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G47" s="3" t="n">
         <v>6</v>
@@ -2724,17 +2814,17 @@
       <c r="A48" s="13" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="F48" s="3" t="n">
         <v>6</v>
@@ -2748,17 +2838,17 @@
       <c r="A49" s="13" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="F49" s="3" t="n">
         <v>6</v>
@@ -2767,24 +2857,24 @@
         <v>6</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F50" s="3" t="n">
         <v>6</v>
@@ -2798,17 +2888,17 @@
       <c r="A51" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="F51" s="3" t="n">
         <v>6</v>
@@ -2817,24 +2907,24 @@
         <v>6</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="F52" s="3" t="n">
         <v>6</v>
@@ -2848,17 +2938,17 @@
       <c r="A53" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="F53" s="3" t="n">
         <v>6</v>
@@ -2867,27 +2957,27 @@
         <v>6</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>99</v>
+      <c r="B54" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="G54" s="3" t="n">
         <v>6</v>
@@ -2898,11 +2988,11 @@
       <c r="A55" s="13" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>101</v>
+      <c r="B55" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>82</v>
@@ -2911,10 +3001,10 @@
         <v>43</v>
       </c>
       <c r="F55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="H55" s="12"/>
     </row>
@@ -2922,23 +3012,23 @@
       <c r="A56" s="13" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="G56" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H56" s="12"/>
     </row>
@@ -2946,7 +3036,7 @@
       <c r="A57" s="13" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C57" s="3" t="n">
@@ -2956,13 +3046,13 @@
         <v>2</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F57" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="H57" s="12"/>
     </row>
@@ -2970,59 +3060,59 @@
       <c r="A58" s="13" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E58" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="G58" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>106</v>
+      <c r="B59" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="G59" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C60" s="3" t="n">
@@ -3032,13 +3122,13 @@
         <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F60" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="H60" s="12"/>
     </row>
@@ -3046,23 +3136,23 @@
       <c r="A61" s="13" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>109</v>
+      <c r="B61" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="G61" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H61" s="12"/>
     </row>
@@ -3070,75 +3160,75 @@
       <c r="A62" s="13" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="G62" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="n">
         <v>61</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>112</v>
+      <c r="B63" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="G63" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="n">
         <v>62</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>90</v>
+      <c r="B64" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F64" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="H64" s="12"/>
     </row>
@@ -3146,23 +3236,23 @@
       <c r="A65" s="13" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>115</v>
+      <c r="B65" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F65" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="H65" s="12"/>
     </row>
@@ -3170,7 +3260,7 @@
       <c r="A66" s="13" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="3" t="n">
@@ -3180,13 +3270,13 @@
         <v>2</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H66" s="12"/>
     </row>
@@ -3194,23 +3284,23 @@
       <c r="A67" s="13" t="n">
         <v>65</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H67" s="12"/>
     </row>
@@ -3218,75 +3308,75 @@
       <c r="A68" s="13" t="n">
         <v>66</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="G68" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" s="15" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" s="16" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="n">
         <v>67</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>119</v>
+      <c r="B69" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E69" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="G69" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="n">
         <v>68</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>122</v>
+      <c r="B70" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H70" s="12"/>
     </row>
@@ -3294,23 +3384,23 @@
       <c r="A71" s="13" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>115</v>
+      <c r="B71" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H71" s="12"/>
     </row>
@@ -3318,7 +3408,7 @@
       <c r="A72" s="13" t="n">
         <v>70</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C72" s="3" t="n">
@@ -3328,13 +3418,13 @@
         <v>1</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H72" s="12"/>
     </row>
@@ -3342,23 +3432,23 @@
       <c r="A73" s="13" t="n">
         <v>71</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>109</v>
+      <c r="B73" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H73" s="12"/>
     </row>
@@ -3366,79 +3456,83 @@
       <c r="A74" s="13" t="n">
         <v>72</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" s="14" t="s">
+      <c r="B74" s="10" t="s">
         <v>97</v>
       </c>
+      <c r="C74" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="D74" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" s="15" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="16" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" s="16" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="17" t="n">
         <v>73</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>126</v>
+      <c r="B75" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" s="15" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="16"/>
-      <c r="B76" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" s="16" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="17" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="C76" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H76" s="12"/>
     </row>
     <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="16" t="n">
-        <v>74</v>
-      </c>
-      <c r="B77" s="9" t="s">
+      <c r="A77" s="17" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C77" s="3" t="n">
@@ -3448,89 +3542,89 @@
         <v>2</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="16" t="n">
-        <v>75</v>
-      </c>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="17" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E78" s="3" t="n">
         <v>2</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="16" t="n">
-        <v>76</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>115</v>
+      <c r="A79" s="17" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E79" s="3" t="n">
         <v>2</v>
       </c>
       <c r="F79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="17" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="16" t="n">
-        <v>77</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="D80" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="F80" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="16" t="n">
-        <v>78</v>
-      </c>
-      <c r="B81" s="9" t="s">
+      <c r="A81" s="17" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C81" s="3" t="n">
@@ -3540,89 +3634,89 @@
         <v>2</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="16" t="n">
-        <v>79</v>
-      </c>
-      <c r="B82" s="9" t="s">
+      <c r="A82" s="17" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="16" t="n">
-        <v>80</v>
-      </c>
-      <c r="B83" s="9" t="s">
+      <c r="A83" s="17" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="16" t="n">
-        <v>80</v>
-      </c>
-      <c r="B84" s="9" t="s">
+      <c r="A84" s="17" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="16" t="n">
-        <v>81</v>
-      </c>
-      <c r="B85" s="9" t="s">
+      <c r="A85" s="17" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C85" s="3" t="n">
@@ -3632,407 +3726,414 @@
         <v>2</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="16" t="n">
-        <v>82</v>
-      </c>
-      <c r="B86" s="9" t="s">
+      <c r="A86" s="17" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F86" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="16" t="n">
-        <v>83</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87" s="14" t="s">
+      <c r="A87" s="17" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>97</v>
       </c>
+      <c r="C87" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="D87" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F87" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="16" t="n">
-        <v>84</v>
-      </c>
-      <c r="B88" s="9" t="s">
+      <c r="A88" s="17" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="16" t="n">
-        <v>85</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>115</v>
+      <c r="A89" s="17" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D89" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="F89" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="16" t="n">
-        <v>86</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C90" s="14" t="s">
+      <c r="A90" s="17" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>97</v>
       </c>
+      <c r="C90" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="D90" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="F90" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="16" t="n">
-        <v>87</v>
-      </c>
-      <c r="B91" s="9" t="s">
+      <c r="A91" s="17" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E91" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="17" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="16" t="n">
-        <v>88</v>
-      </c>
-      <c r="B92" s="9" t="s">
+      <c r="E92" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="17" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="17" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="17" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="17" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="17" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="17" t="n">
         <v>96</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="B98" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="16" t="n">
-        <v>89</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="16" t="n">
-        <v>90</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="16" t="n">
-        <v>91</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="16" t="n">
-        <v>92</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="16" t="n">
-        <v>93</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="16" t="n">
-        <v>94</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>97</v>
+      <c r="C98" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="n">
-        <v>95</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="H99" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="n">
-        <v>96</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>122</v>
+        <v>98</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>82</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="13"/>
-      <c r="B101" s="9"/>
+      <c r="A101" s="13" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="C101" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>97</v>
+      <c r="C102" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="n">
-        <v>98</v>
-      </c>
-      <c r="B103" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C103" s="3" t="n">
@@ -4042,171 +4143,171 @@
         <v>0</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="n">
-        <v>99</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C104" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>97</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="D104" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="B105" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E105" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="n">
-        <v>101</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>115</v>
+        <v>104</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E106" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="13" t="n">
-        <v>102</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C107" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>97</v>
       </c>
+      <c r="C107" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="D107" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E107" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="13" t="n">
-        <v>103</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>134</v>
+        <v>106</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F108" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="13" t="n">
-        <v>104</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C109" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>97</v>
       </c>
+      <c r="C109" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="D109" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F109" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="13" t="n">
-        <v>105</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G110" s="3" t="n">
         <v>0</v>
@@ -4214,22 +4315,22 @@
     </row>
     <row r="111" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="13" t="n">
-        <v>106</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C111" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>97</v>
       </c>
+      <c r="C111" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="D111" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G111" s="3" t="n">
         <v>0</v>
@@ -4237,101 +4338,104 @@
     </row>
     <row r="112" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="13" t="n">
-        <v>107</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>138</v>
+        <v>110</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="13" t="n">
-        <v>108</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C113" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>97</v>
       </c>
+      <c r="C113" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="D113" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="16" t="n">
-        <v>109</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>122</v>
+      <c r="A114" s="17" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="H114" s="18" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="16" t="n">
-        <v>110</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C115" s="14" t="s">
+      <c r="A115" s="17" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>97</v>
       </c>
+      <c r="C115" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="D115" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="16" t="n">
-        <v>111</v>
-      </c>
-      <c r="B116" s="9" t="s">
+      <c r="A116" s="17" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C116" s="3" t="n">
@@ -4341,251 +4445,805 @@
         <v>0</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="16" t="n">
-        <v>112</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C117" s="14" t="s">
+      <c r="A117" s="17" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>97</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="D117" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="16" t="n">
-        <v>113</v>
-      </c>
-      <c r="B118" s="9" t="s">
+      <c r="A118" s="17" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E118" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F118" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="17" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="16" t="n">
-        <v>114</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="E119" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F119" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="17" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="16" t="n">
-        <v>115</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="E120" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F120" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="17" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="16" t="n">
-        <v>116</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="F121" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G121" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="17" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E122" s="3" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="16" t="n">
-        <v>117</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="F122" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G122" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="17" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="16" t="n">
-        <v>118</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="G123" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="16" t="n">
-        <v>119</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C124" s="14" t="s">
+      <c r="A124" s="17" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" s="10" t="s">
         <v>97</v>
       </c>
+      <c r="C124" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="D124" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G124" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="16" t="n">
-        <v>120</v>
-      </c>
-      <c r="B125" s="9" t="s">
+      <c r="A125" s="17" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="17" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H126" s="0"/>
+    </row>
+    <row r="127" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="13" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H127" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="13" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D128" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="13" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="D129" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E129" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="13" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E130" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="13" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D131" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="13" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D132" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="13" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E133" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="13" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E134" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="13" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F135" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="13" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G136" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="13" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G137" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="13" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G138" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="13" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G139" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="17" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G140" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="17" t="n">
         <v>139</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="16" t="n">
-        <v>121</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C126" s="14" t="s">
+      <c r="B141" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F141" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="17" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H126" s="4" t="s">
+      <c r="C142" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F142" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="17" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E143" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="17" t="n">
         <v>142</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="3" t="s">
+      <c r="B144" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E144" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="17" t="n">
         <v>143</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E145" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="17" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F146" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="17" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F147" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="17" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G148" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="17" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G149" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="19" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G150" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4610,455 +5268,521 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L20"/>
+  <dimension ref="A2:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="14.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="18" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="15" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="12.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="14.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="9" style="20" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="22" width="20.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="13" style="20" width="11.53"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="19" t="n">
+      <c r="B3" s="24" t="n">
         <v>48000</v>
       </c>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="C3" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19" t="n">
+      <c r="B4" s="24" t="n">
         <v>1000</v>
       </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="C4" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B5" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="17" t="n">
+      <c r="C5" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="27" t="n">
         <f aca="false">10^(3/40)</f>
         <v>1.18850222743702</v>
       </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="C6" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B7" s="22" t="n">
         <v>2.8627</v>
       </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="21" t="n">
+      <c r="C7" s="25"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="22" t="n">
         <v>0.0228</v>
       </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="30" t="n">
+        <v>48000</v>
+      </c>
+      <c r="C11" s="30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="28" t="n">
+        <f aca="false">10^(3/40)</f>
+        <v>1.18850222743702</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="E13" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="K9" s="15" t="s">
+      <c r="F13" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="24" t="n">
-        <f aca="false">SIN(2*PI()*B3/B2)</f>
+      <c r="L13" s="35" t="n">
+        <f aca="false">SIN(2*PI()*B4/B3)</f>
         <v>0.130526192220052</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="18" t="n">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="37" t="n">
         <v>0.004278</v>
       </c>
-      <c r="D10" s="18" t="n">
+      <c r="D14" s="37" t="n">
         <v>0.008555</v>
       </c>
-      <c r="E10" s="18" t="n">
+      <c r="E14" s="37" t="n">
         <v>0.004278</v>
       </c>
-      <c r="F10" s="18" t="n">
+      <c r="F14" s="37" t="n">
         <v>1.022798</v>
       </c>
-      <c r="G10" s="18" t="n">
+      <c r="G14" s="37" t="n">
         <v>-1.98289</v>
       </c>
-      <c r="H10" s="18" t="n">
+      <c r="H14" s="37" t="n">
         <v>0.977202</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="K10" s="15" t="s">
+      <c r="I14" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="24" t="n">
-        <f aca="false">COS(2*PI()*B3/B2)</f>
+      <c r="L14" s="35" t="n">
+        <f aca="false">COS(2*PI()*B4/B3)</f>
         <v>0.99144486137381</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="18" t="n">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="37" t="n">
         <v>0.995722</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D15" s="37" t="n">
         <v>-1.991445</v>
       </c>
-      <c r="E11" s="18" t="n">
+      <c r="E15" s="37" t="n">
         <v>0.995722</v>
       </c>
-      <c r="F11" s="18" t="n">
+      <c r="F15" s="37" t="n">
         <v>1.022798</v>
       </c>
-      <c r="G11" s="18" t="n">
+      <c r="G15" s="37" t="n">
         <v>-1.98289</v>
       </c>
-      <c r="H11" s="18" t="n">
+      <c r="H15" s="37" t="n">
         <v>0.977202</v>
       </c>
-      <c r="I11" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="K11" s="15" t="s">
+      <c r="I15" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="24" t="n">
+      <c r="L15" s="35" t="n">
+        <f aca="false">B7</f>
+        <v>2.8627</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="37" t="n">
+        <v>0.065263</v>
+      </c>
+      <c r="D16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="37" t="n">
+        <v>-0.065263</v>
+      </c>
+      <c r="F16" s="37" t="n">
+        <v>1.022798</v>
+      </c>
+      <c r="G16" s="37" t="n">
+        <v>-1.98289</v>
+      </c>
+      <c r="H16" s="37" t="n">
+        <v>0.977202</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="35" t="n">
         <f aca="false">B6</f>
+        <v>1.18850222743702</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="37" t="n">
+        <v>0.022798</v>
+      </c>
+      <c r="D17" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="37" t="n">
+        <v>-0.022798</v>
+      </c>
+      <c r="F17" s="37" t="n">
+        <v>1.022798</v>
+      </c>
+      <c r="G17" s="37" t="n">
+        <v>-1.98289</v>
+      </c>
+      <c r="H17" s="37" t="n">
+        <v>0.977202</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="35" t="n">
+        <f aca="false">B8</f>
+        <v>0.0228</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="37" t="n">
+        <v>-1.98289</v>
+      </c>
+      <c r="E18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="37" t="n">
+        <v>1.022798</v>
+      </c>
+      <c r="G18" s="37" t="n">
+        <v>-1.98289</v>
+      </c>
+      <c r="H18" s="37" t="n">
+        <v>0.977202</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="35" t="n">
+        <f aca="false">B8+1</f>
+        <v>1.0228</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="37" t="n">
+        <v>0.977202</v>
+      </c>
+      <c r="D19" s="37" t="n">
+        <v>-1.98289</v>
+      </c>
+      <c r="E19" s="37" t="n">
+        <v>1.022798</v>
+      </c>
+      <c r="F19" s="37" t="n">
+        <v>1.022798</v>
+      </c>
+      <c r="G19" s="37" t="n">
+        <v>-1.98289</v>
+      </c>
+      <c r="H19" s="37" t="n">
+        <v>0.977202</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" s="35" t="n">
+        <f aca="false">-2*L14</f>
+        <v>-1.98288972274762</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="37" t="n">
+        <v>1.027095</v>
+      </c>
+      <c r="D20" s="37" t="n">
+        <v>-1.98289</v>
+      </c>
+      <c r="E20" s="37" t="n">
+        <v>0.972905</v>
+      </c>
+      <c r="F20" s="37" t="n">
+        <v>1.019182</v>
+      </c>
+      <c r="G20" s="37" t="n">
+        <v>-1.98289</v>
+      </c>
+      <c r="H20" s="37" t="n">
+        <v>0.980818</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="35" t="n">
+        <f aca="false">2*PI()*B4/B3</f>
+        <v>0.130899693899575</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="37" t="n">
+        <v>2.437998</v>
+      </c>
+      <c r="D21" s="37" t="n">
+        <v>-4.709504</v>
+      </c>
+      <c r="E21" s="37" t="n">
+        <v>2.319844</v>
+      </c>
+      <c r="F21" s="37" t="n">
+        <v>2.425099</v>
+      </c>
+      <c r="G21" s="37" t="n">
+        <v>-4.716563</v>
+      </c>
+      <c r="H21" s="37" t="n">
+        <v>2.325685</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="37" t="n">
+        <v>2.882235</v>
+      </c>
+      <c r="D22" s="37" t="n">
+        <v>-5.605646</v>
+      </c>
+      <c r="E22" s="37" t="n">
+        <v>2.764082</v>
+      </c>
+      <c r="F22" s="37" t="n">
+        <v>2.05132</v>
+      </c>
+      <c r="G22" s="37" t="n">
+        <v>-3.962554</v>
+      </c>
+      <c r="H22" s="37" t="n">
+        <v>1.951906</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="37" t="n">
+        <v>48000</v>
+      </c>
+      <c r="D23" s="37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="37" t="n">
+        <v>1.1885</v>
+      </c>
+      <c r="G23" s="37" t="n">
         <v>2.8627</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="18" t="n">
-        <v>0.065263</v>
-      </c>
-      <c r="D12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="18" t="n">
-        <v>-0.065263</v>
-      </c>
-      <c r="F12" s="18" t="n">
-        <v>1.022798</v>
-      </c>
-      <c r="G12" s="18" t="n">
-        <v>-1.98289</v>
-      </c>
-      <c r="H12" s="18" t="n">
-        <v>0.977202</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="24" t="n">
-        <f aca="false">B5</f>
-        <v>1.18850222743702</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="18" t="n">
-        <v>0.022798</v>
-      </c>
-      <c r="D13" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18" t="n">
-        <v>-0.022798</v>
-      </c>
-      <c r="F13" s="18" t="n">
-        <v>1.022798</v>
-      </c>
-      <c r="G13" s="18" t="n">
-        <v>-1.98289</v>
-      </c>
-      <c r="H13" s="18" t="n">
-        <v>0.977202</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" s="24" t="n">
-        <f aca="false">B7</f>
+      <c r="H23" s="37" t="n">
         <v>0.0228</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="18" t="n">
-        <v>-1.98289</v>
-      </c>
-      <c r="E14" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="18" t="n">
-        <v>1.022798</v>
-      </c>
-      <c r="G14" s="18" t="n">
-        <v>-1.98289</v>
-      </c>
-      <c r="H14" s="18" t="n">
-        <v>0.977202</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" s="24" t="n">
-        <f aca="false">B7+1</f>
-        <v>1.0228</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="18" t="n">
-        <v>0.977202</v>
-      </c>
-      <c r="D15" s="18" t="n">
-        <v>-1.98289</v>
-      </c>
-      <c r="E15" s="18" t="n">
-        <v>1.022798</v>
-      </c>
-      <c r="F15" s="18" t="n">
-        <v>1.022798</v>
-      </c>
-      <c r="G15" s="18" t="n">
-        <v>-1.98289</v>
-      </c>
-      <c r="H15" s="18" t="n">
-        <v>0.977202</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="L15" s="24" t="n">
-        <f aca="false">-2*L10</f>
-        <v>-1.98288972274762</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="18" t="n">
-        <v>1.027095</v>
-      </c>
-      <c r="D16" s="18" t="n">
-        <v>-1.98289</v>
-      </c>
-      <c r="E16" s="18" t="n">
-        <v>0.972905</v>
-      </c>
-      <c r="F16" s="18" t="n">
-        <v>1.019182</v>
-      </c>
-      <c r="G16" s="18" t="n">
-        <v>-1.98289</v>
-      </c>
-      <c r="H16" s="18" t="n">
-        <v>0.980818</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="24" t="n">
-        <f aca="false">2*PI()*B3/B2</f>
-        <v>0.130899693899575</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="18" t="n">
-        <v>2.437998</v>
-      </c>
-      <c r="D17" s="18" t="n">
-        <v>-4.709504</v>
-      </c>
-      <c r="E17" s="18" t="n">
-        <v>2.319844</v>
-      </c>
-      <c r="F17" s="18" t="n">
-        <v>2.425099</v>
-      </c>
-      <c r="G17" s="18" t="n">
-        <v>-4.716563</v>
-      </c>
-      <c r="H17" s="18" t="n">
-        <v>2.325685</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="18" t="n">
-        <v>2.882235</v>
-      </c>
-      <c r="D18" s="18" t="n">
-        <v>-5.605646</v>
-      </c>
-      <c r="E18" s="18" t="n">
-        <v>2.764082</v>
-      </c>
-      <c r="F18" s="18" t="n">
-        <v>2.05132</v>
-      </c>
-      <c r="G18" s="18" t="n">
-        <v>-3.962554</v>
-      </c>
-      <c r="H18" s="18" t="n">
-        <v>1.951906</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" s="18" t="n">
-        <v>48000</v>
-      </c>
-      <c r="D19" s="18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E19" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="18" t="n">
-        <v>1.1885</v>
-      </c>
-      <c r="G19" s="18" t="n">
-        <v>2.8627</v>
-      </c>
-      <c r="H19" s="18" t="n">
-        <v>0.0228</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="18" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="38"/>
+      <c r="C24" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D24" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E24" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="18" t="s">
+      <c r="F24" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="18" t="s">
-        <v>104</v>
+      <c r="H24" s="37" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/engineering_basics/programming_scratch_pad.xlsx
+++ b/engineering_basics/programming_scratch_pad.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="387">
   <si>
     <t xml:space="preserve">Line Num</t>
   </si>
@@ -1111,7 +1111,10 @@
     <t xml:space="preserve">(A+1)-((A-1)cos(w0)+2aA)</t>
   </si>
   <si>
-    <t xml:space="preserve">42 23 13</t>
+    <t xml:space="preserve">42 23 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIM B</t>
   </si>
   <si>
     <t xml:space="preserve">45 30 .4</t>
@@ -1120,7 +1123,10 @@
     <t xml:space="preserve">RCL- .4</t>
   </si>
   <si>
-    <t xml:space="preserve">44 13 u</t>
+    <t xml:space="preserve">44 12 u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uSTO B</t>
   </si>
   <si>
     <t xml:space="preserve">45 40 .4</t>
@@ -1205,9 +1211,373 @@
     <t xml:space="preserve">RCL+ .5</t>
   </si>
   <si>
+    <t xml:space="preserve">45 20 .2</t>
+  </si>
+  <si>
     <t xml:space="preserve">RCL* .2</t>
   </si>
   <si>
+    <t xml:space="preserve">45 .6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL .6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A-1)*cos(w0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-(A-1)cos</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">w0</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(A+1)-((A-1)cos(w0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A+1)-((A-1)cos(w0)+2sqrt(A)alpha</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(A+1)-((A-1)cos(w0)+2sqrt(A)alpha))</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">45 .7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL .7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A+1)*cos(w0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-(A+1)cos</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">w0</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(A-1)-((A+1)cos(w0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A((A-1)-((A+1)cos(w0))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2A((A-1)-((A+1)cos(w0))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A+1)-((A-1)cos(w0)-2sqrt(A)alpha</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(A+1)-((A-1)cos(w0)-2sqrt(A)alpha))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(A+1)+(A-1)cos</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">w0</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(A+1)+((A-1)cos(w0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+2sqrt(A)alpha</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A((A+1)+((A-1)cos(w0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+2sqrt(A)alpha)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(A-1)+(A+1)cos</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">w0</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A((A-1)+(A+1)cos</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">w0</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-2A((A-1)+(A+1)cos</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">w0</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">))</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(A+1)+(A-1)cos(w0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A+1)+(A-1)cos(w0)-2sqrt(A)alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A((A+1)+(A-1)cos(w0)-2sqrt(A)alpha)</t>
+  </si>
+  <si>
     <t xml:space="preserve">43 32</t>
   </si>
   <si>
@@ -1247,7 +1617,7 @@
     <t xml:space="preserve">R.8</t>
   </si>
   <si>
-    <t xml:space="preserve">2sqrt(A)alpha</t>
+    <t xml:space="preserve">2sqrt(A)a</t>
   </si>
   <si>
     <t xml:space="preserve">R.9</t>
@@ -2140,7 +2510,7 @@
     <cellStyle name="Total" xfId="59"/>
     <cellStyle name="Warning Text" xfId="60"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -2158,29 +2528,7 @@
       <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8080"/>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -7842,8 +8190,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C188" activeCellId="0" sqref="C188"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D237" activeCellId="0" sqref="D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7851,8 +8199,10 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="27.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="21.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="42.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="28.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="29.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="28.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="77.77"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="4" width="11.53"/>
   </cols>
@@ -10564,8 +10914,12 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="37"/>
-      <c r="B115" s="38"/>
+      <c r="A115" s="37" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="38" t="s">
+        <v>227</v>
+      </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
@@ -10584,7 +10938,7 @@
     </row>
     <row r="116" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="37" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116" s="38" t="n">
         <v>9</v>
@@ -10607,7 +10961,7 @@
     </row>
     <row r="117" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="37" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" s="38" t="n">
         <v>36</v>
@@ -10630,7 +10984,7 @@
     </row>
     <row r="118" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="37" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118" s="38" t="n">
         <v>3</v>
@@ -10653,13 +11007,13 @@
     </row>
     <row r="119" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="37" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" s="38" t="s">
         <v>319</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>89</v>
+        <v>320</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>3</v>
@@ -10702,10 +11056,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="38" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>95</v>
@@ -10722,7 +11076,7 @@
     </row>
     <row r="122" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="37" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="38" t="n">
         <v>36</v>
@@ -10744,8 +11098,12 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="37"/>
-      <c r="B123" s="38"/>
+      <c r="A123" s="37" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="38" t="n">
+        <v>36</v>
+      </c>
       <c r="C123" s="2" t="s">
         <v>86</v>
       </c>
@@ -10766,7 +11124,9 @@
       <c r="A124" s="37" t="n">
         <v>122</v>
       </c>
-      <c r="B124" s="38"/>
+      <c r="B124" s="38" t="n">
+        <v>2</v>
+      </c>
       <c r="C124" s="19" t="n">
         <v>2</v>
       </c>
@@ -10789,7 +11149,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="38" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C125" s="19" t="s">
         <v>27</v>
@@ -10813,10 +11173,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>96</v>
@@ -10859,10 +11219,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>95</v>
@@ -10905,10 +11265,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>96</v>
@@ -10928,7 +11288,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="38" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C131" s="19" t="n">
         <v>1</v>
@@ -10951,13 +11311,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="38" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>96</v>
@@ -10980,7 +11340,7 @@
         <v>86</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>96</v>
@@ -10993,16 +11353,20 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="37"/>
-      <c r="B134" s="38"/>
+      <c r="A134" s="37" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="38" t="n">
+        <v>36</v>
+      </c>
       <c r="C134" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>96</v>
@@ -11015,7 +11379,9 @@
       <c r="A135" s="37" t="n">
         <v>133</v>
       </c>
-      <c r="B135" s="38"/>
+      <c r="B135" s="38" t="n">
+        <v>2</v>
+      </c>
       <c r="C135" s="19" t="n">
         <v>2</v>
       </c>
@@ -11023,10 +11389,10 @@
         <v>2</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>96</v>
@@ -11037,16 +11403,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="38" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C136" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>96</v>
@@ -11060,16 +11426,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>96</v>
@@ -11089,10 +11455,10 @@
         <v>58</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>96</v>
@@ -11112,10 +11478,10 @@
         <v>117</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>96</v>
@@ -11129,16 +11495,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>96</v>
@@ -11159,10 +11525,10 @@
         <v>58</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>96</v>
@@ -11176,16 +11542,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>96</v>
@@ -11199,19 +11565,19 @@
         <v>141</v>
       </c>
       <c r="B143" s="38" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>96</v>
@@ -11222,19 +11588,19 @@
         <v>142</v>
       </c>
       <c r="B144" s="38" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>96</v>
@@ -11245,19 +11611,19 @@
         <v>143</v>
       </c>
       <c r="B145" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>96</v>
@@ -11280,10 +11646,10 @@
         <v>142</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11291,10 +11657,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>0</v>
@@ -11303,10 +11669,10 @@
         <v>142</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11326,10 +11692,10 @@
         <v>0</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11349,10 +11715,10 @@
         <v>0</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11360,10 +11726,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>143</v>
@@ -11372,10 +11738,10 @@
         <v>0</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H150" s="17"/>
     </row>
@@ -11399,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11407,10 +11773,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>105</v>
@@ -11422,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11453,10 +11819,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D154" s="2" t="n">
         <v>0</v>
@@ -11522,10 +11888,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>125</v>
@@ -11568,10 +11934,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D159" s="2" t="n">
         <v>1</v>
@@ -11597,7 +11963,7 @@
         <v>293</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E160" s="2" t="n">
         <v>1</v>
@@ -11623,7 +11989,7 @@
         <v>2</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F161" s="2" t="n">
         <v>1</v>
@@ -11646,7 +12012,7 @@
         <v>-2</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F162" s="2" t="n">
         <v>1</v>
@@ -11666,7 +12032,7 @@
         <v>32</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E163" s="2" t="n">
         <v>1</v>
@@ -11683,13 +12049,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E164" s="2" t="n">
         <v>1</v>
@@ -11715,7 +12081,7 @@
         <v>1</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>125</v>
@@ -11729,16 +12095,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D166" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>125</v>
@@ -11752,16 +12118,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="38" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C167" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>125</v>
@@ -11771,16 +12137,20 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="37"/>
-      <c r="B168" s="38"/>
+      <c r="A168" s="37" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" s="38" t="s">
+        <v>323</v>
+      </c>
       <c r="C168" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>125</v>
@@ -11791,7 +12161,7 @@
     </row>
     <row r="169" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="37" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B169" s="38" t="n">
         <v>34</v>
@@ -11800,7 +12170,7 @@
         <v>58</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>126</v>
@@ -11814,16 +12184,16 @@
     </row>
     <row r="170" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="37" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B170" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>126</v>
@@ -11837,7 +12207,7 @@
     </row>
     <row r="171" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="37" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B171" s="38" t="n">
         <v>1</v>
@@ -11849,7 +12219,7 @@
         <v>1</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>126</v>
@@ -11860,19 +12230,19 @@
     </row>
     <row r="172" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="37" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B172" s="38" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>126</v>
@@ -11883,19 +12253,19 @@
     </row>
     <row r="173" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="37" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B173" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>126</v>
@@ -11906,7 +12276,7 @@
     </row>
     <row r="174" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="37" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B174" s="38" t="n">
         <v>33</v>
@@ -11915,7 +12285,7 @@
         <v>56</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>126</v>
@@ -11929,7 +12299,7 @@
     </row>
     <row r="175" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="37" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B175" s="38" t="s">
         <v>272</v>
@@ -11941,7 +12311,7 @@
         <v>105</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>126</v>
@@ -11952,19 +12322,19 @@
     </row>
     <row r="176" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="37" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B176" s="38" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>152</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>126</v>
@@ -11975,7 +12345,7 @@
     </row>
     <row r="177" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="37" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B177" s="38" t="n">
         <v>1</v>
@@ -11990,7 +12360,7 @@
         <v>156</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>126</v>
@@ -11998,7 +12368,7 @@
     </row>
     <row r="178" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="37" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B178" s="38" t="n">
         <v>40</v>
@@ -12010,7 +12380,7 @@
         <v>157</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>126</v>
@@ -12021,19 +12391,19 @@
     </row>
     <row r="179" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="37" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B179" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>157</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>126</v>
@@ -12044,7 +12414,7 @@
     </row>
     <row r="180" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="37" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B180" s="38" t="n">
         <v>34</v>
@@ -12053,7 +12423,7 @@
         <v>58</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>157</v>
@@ -12067,16 +12437,16 @@
     </row>
     <row r="181" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="37" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B181" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>157</v>
@@ -12090,7 +12460,7 @@
     </row>
     <row r="182" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="37" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B182" s="38" t="s">
         <v>272</v>
@@ -12102,7 +12472,7 @@
         <v>105</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>126</v>
@@ -12113,19 +12483,19 @@
     </row>
     <row r="183" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="37" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B183" s="38" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>152</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>126</v>
@@ -12136,7 +12506,7 @@
     </row>
     <row r="184" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="37" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B184" s="38" t="n">
         <v>16</v>
@@ -12148,7 +12518,7 @@
         <v>154</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>126</v>
@@ -12159,7 +12529,7 @@
     </row>
     <row r="185" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="37" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B185" s="38" t="n">
         <v>1</v>
@@ -12174,7 +12544,7 @@
         <v>154</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>126</v>
@@ -12183,7 +12553,7 @@
     </row>
     <row r="186" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="37" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B186" s="38" t="n">
         <v>40</v>
@@ -12195,7 +12565,7 @@
         <v>155</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>126</v>
@@ -12207,19 +12577,19 @@
     </row>
     <row r="187" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="37" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B187" s="38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>126</v>
@@ -12231,73 +12601,995 @@
     </row>
     <row r="188" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="37" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B188" s="38" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C188" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="37" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="37" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" s="38" t="n">
+        <v>16</v>
+      </c>
+      <c r="C190" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="37" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="37" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="C192" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="D192" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="37" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="E188" s="4"/>
-    </row>
-    <row r="189" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="10"/>
-      <c r="B189" s="11"/>
-    </row>
-    <row r="190" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="10"/>
-      <c r="B190" s="11"/>
-      <c r="E190" s="4"/>
-    </row>
-    <row r="191" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="10"/>
-      <c r="B191" s="11"/>
-    </row>
-    <row r="192" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="10"/>
-      <c r="B192" s="11"/>
-      <c r="E192" s="4"/>
-    </row>
-    <row r="193" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="10"/>
-      <c r="B193" s="11"/>
-      <c r="E193" s="4"/>
+      <c r="C193" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="10"/>
-      <c r="B194" s="11"/>
-      <c r="E194" s="4"/>
+      <c r="A194" s="37" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="C194" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="10"/>
-      <c r="B195" s="11"/>
+      <c r="A195" s="37" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="C195" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="10"/>
-      <c r="B196" s="11"/>
-      <c r="E196" s="4"/>
+      <c r="A196" s="37" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="10"/>
-      <c r="B197" s="11"/>
+      <c r="A197" s="37" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" s="38" t="n">
+        <v>16</v>
+      </c>
+      <c r="C197" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="10"/>
-      <c r="B198" s="11"/>
+      <c r="A198" s="37" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="C198" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="10"/>
-      <c r="B199" s="11"/>
+      <c r="A199" s="37" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C199" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="10"/>
-      <c r="B200" s="11"/>
+      <c r="A200" s="37" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C200" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="10"/>
-      <c r="B201" s="11"/>
-    </row>
+      <c r="A201" s="37" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" s="38" t="n">
+        <v>20</v>
+      </c>
+      <c r="C201" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D201" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="37" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D202" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="37" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="C203" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E203" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="37" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="C204" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E204" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="37" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" s="38" t="n">
+        <v>16</v>
+      </c>
+      <c r="C205" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E205" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="37" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C206" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E206" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="37" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C207" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="D207" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="E207" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="37" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C208" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E208" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="37" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="C209" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E209" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="37" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="C210" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F210" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="37" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="C211" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F211" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="37" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C212" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F212" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="37" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="C213" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F213" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="37" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C214" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F214" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="37" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="C215" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F215" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="37" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="C216" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G216" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="37" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="C217" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G217" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="37" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="C218" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G218" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="37" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C219" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G219" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="37" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C220" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="37" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" s="38" t="n">
+        <v>16</v>
+      </c>
+      <c r="C221" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="37" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" s="38" t="n">
+        <v>20</v>
+      </c>
+      <c r="C222" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="37" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="C223" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="37" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="C224" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="37" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="C225" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="37" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C226" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="37" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C227" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="37" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C228" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="37" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="C229" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="37" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="C230" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
@@ -12306,44 +13598,34 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C138:C139 C141 C143:C144 C146 C148 C1:C121 C124:C136 C151:C1030">
+  <conditionalFormatting sqref="C1:C187 C190:C194 C226:C1022 C197:C202 C205:C209 C213:C215 C218:C223">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="uSTO A" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("uSTO A",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C138:C139 C141 C143:C144 C146 C148 C1:C121 C124:C136 C151:C1030">
-    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="uSTO C" dxfId="1">
-      <formula>NOT(ISERROR(SEARCH("uSTO C",C1)))</formula>
+  <conditionalFormatting sqref="C1:C187 C190:C194 C226:C1022 C197:C202 C205:C209 C213:C215 C218:C223">
+    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="uSTO B" dxfId="0">
+      <formula>NOT(ISERROR(SEARCH("uSTO B",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C140 C142 C137 C145 C147 C150">
+  <conditionalFormatting sqref="C188:C189 C195:C196 C203:C204 C210:C211 C216:C217 C224:C225">
     <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="uSTO A" dxfId="0">
-      <formula>NOT(ISERROR(SEARCH("uSTO A",C137)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uSTO A",C188)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C140 C142 C137 C145 C147 C150">
-    <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="uSTO C" dxfId="1">
-      <formula>NOT(ISERROR(SEARCH("uSTO C",C137)))</formula>
+  <conditionalFormatting sqref="C188:C189 C195:C196 C203:C204 C210:C211 C216:C217 C224:C225">
+    <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="uSTO B" dxfId="0">
+      <formula>NOT(ISERROR(SEARCH("uSTO B",C188)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
+  <conditionalFormatting sqref="C212">
     <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="uSTO A" dxfId="0">
-      <formula>NOT(ISERROR(SEARCH("uSTO A",C149)))</formula>
+      <formula>NOT(ISERROR(SEARCH("uSTO A",C212)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
-    <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="uSTO C" dxfId="1">
-      <formula>NOT(ISERROR(SEARCH("uSTO C",C149)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122:C123">
-    <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="uSTO A" dxfId="0">
-      <formula>NOT(ISERROR(SEARCH("uSTO A",C122)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122:C123">
-    <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="uSTO C" dxfId="1">
-      <formula>NOT(ISERROR(SEARCH("uSTO C",C122)))</formula>
+  <conditionalFormatting sqref="C212">
+    <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="uSTO B" dxfId="0">
+      <formula>NOT(ISERROR(SEARCH("uSTO B",C212)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12363,15 +13645,15 @@
   </sheetPr>
   <dimension ref="A2:XFD44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="12.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="44.93"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="4" width="11.53"/>
@@ -12475,16 +13757,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="29" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12535,10 +13817,10 @@
         <v>189</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>8</v>
@@ -12567,7 +13849,7 @@
         <v>0.130899693899575</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="XEW17" s="16"/>
       <c r="XEX17" s="16"/>
@@ -12592,7 +13874,7 @@
         <v>0.5</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="XEW18" s="16"/>
       <c r="XEX18" s="16"/>
@@ -12617,7 +13899,7 @@
         <v>1.1885</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="XEW19" s="16"/>
       <c r="XEX19" s="16"/>
@@ -12633,7 +13915,7 @@
         <v>200</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>43</v>
@@ -12643,7 +13925,7 @@
         <v>0.130526192220052</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="XEW20" s="16"/>
       <c r="XEX20" s="16"/>
@@ -12659,7 +13941,7 @@
         <v>200</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>51</v>
@@ -12669,7 +13951,7 @@
         <v>0.99144486137381</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="XEW21" s="16"/>
       <c r="XEX21" s="16"/>
@@ -12685,7 +13967,7 @@
         <v>200</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>105</v>
@@ -12695,7 +13977,7 @@
         <v>0.0227975345742468</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="XEW22" s="16"/>
       <c r="XEX22" s="16"/>
@@ -12711,7 +13993,7 @@
         <v>200</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>163</v>
@@ -12721,7 +14003,7 @@
         <v>0.1885</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="XEW23" s="16"/>
       <c r="XEX23" s="16"/>
@@ -12734,7 +14016,7 @@
     </row>
     <row r="24" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>161</v>
@@ -12744,7 +14026,7 @@
         <v>2.1885</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="XEW24" s="16"/>
       <c r="XEX24" s="16"/>
@@ -12757,17 +14039,17 @@
     </row>
     <row r="25" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="D25" s="33" t="n">
         <f aca="false">2*SQRT(D19)*D22</f>
         <v>0.0497069907355551</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="XEW25" s="16"/>
       <c r="XEX25" s="16"/>
@@ -12780,7 +14062,7 @@
     </row>
     <row r="26" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>82</v>
@@ -12790,7 +14072,7 @@
         <v>2.8627260503752</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="XEW26" s="16"/>
       <c r="XEX26" s="16"/>
@@ -12801,7 +14083,7 @@
       <c r="XFC26" s="16"/>
       <c r="XFD26" s="16"/>
     </row>
-    <row r="27" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="20" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="33"/>
@@ -12821,7 +14103,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="20" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>195</v>
@@ -12838,7 +14120,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="B30" s="35" t="n">
         <v>1.022798</v>
@@ -12850,7 +14132,7 @@
         <v>0.977202</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -12903,7 +14185,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="20" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="B35" s="32" t="s">
         <v>177</v>
@@ -12917,7 +14199,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="20" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="B36" s="35" t="n">
         <v>0.004278</v>
